--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_template.xlsx
@@ -11,7 +11,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'振休確認表(日数管理_紐付あり_年月日)'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -294,6 +293,30 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -305,30 +328,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -610,8 +609,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="9.75"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="2" customWidth="1"/>
-    <col min="2" max="3" width="6.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="6.75" style="2" customWidth="1"/>
     <col min="4" max="9" width="3.75" style="2"/>
     <col min="10" max="19" width="3.75" style="3"/>
     <col min="20" max="20" width="3.75" style="1"/>
@@ -657,9 +656,9 @@
       <c r="AJ1" s="6"/>
     </row>
     <row r="2" spans="1:36" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -691,13 +690,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
     </row>
     <row r="3" spans="1:36" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -729,82 +728,82 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
     </row>
     <row r="4" spans="1:36" ht="10.5" thickBot="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
     </row>
     <row r="5" spans="1:36" ht="10.5" thickBot="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
     </row>
@@ -848,8 +847,8 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -881,8 +880,8 @@
       <c r="AF7" s="14"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="18"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="26"/>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="11"/>
@@ -924,8 +923,8 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -957,8 +956,8 @@
       <c r="AF9" s="14"/>
       <c r="AG9" s="14"/>
       <c r="AH9" s="14"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="18"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="26"/>
     </row>
     <row r="20" spans="1:19" s="1" customFormat="1">
       <c r="A20" s="2"/>
@@ -1025,21 +1024,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="AI2:AJ3"/>
     <mergeCell ref="A4:AH4"/>
     <mergeCell ref="A5:AH5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="AI9:AJ9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.97916666666666663" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_template.xlsx
@@ -293,6 +293,30 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -304,30 +328,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -605,9 +605,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="9.75"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.375" style="2" customWidth="1"/>
     <col min="2" max="3" width="6.75" style="2" customWidth="1"/>
@@ -617,7 +619,7 @@
     <col min="21" max="16384" width="3.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -655,10 +657,10 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:36" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+    <row r="2" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -690,13 +692,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-    </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+    </row>
+    <row r="3" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -728,86 +730,86 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-    </row>
-    <row r="4" spans="1:36" ht="10.5" thickBot="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+    </row>
+    <row r="4" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
     </row>
-    <row r="5" spans="1:36" ht="10.5" thickBot="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
+    <row r="5" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" ht="13.5" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -845,10 +847,10 @@
       <c r="AI6" s="21"/>
       <c r="AJ6" s="22"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" ht="13.5" customHeight="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -880,10 +882,10 @@
       <c r="AF7" s="14"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="26"/>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="18"/>
+    </row>
+    <row r="8" spans="1:36" ht="13.5" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -921,10 +923,10 @@
       <c r="AI8" s="21"/>
       <c r="AJ8" s="22"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" ht="13.5" customHeight="1">
       <c r="A9" s="13"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -956,10 +958,10 @@
       <c r="AF9" s="14"/>
       <c r="AG9" s="14"/>
       <c r="AH9" s="14"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="26"/>
-    </row>
-    <row r="20" spans="1:19" s="1" customFormat="1">
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="18"/>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -980,7 +982,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1001,7 +1003,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1024,21 +1026,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="AI2:AJ3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AH5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="AI8:AJ8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="AI2:AJ3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AH5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="AI6:AJ6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.97916666666666663" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079F5586-B25F-4B41-A75C-EA6A394D4DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="振休確認表(日数管理_紐付あり_年月日)" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -49,7 +55,7 @@
       <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,24 +76,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF9BC2E6"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -159,17 +159,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="dotted">
         <color auto="1"/>
@@ -237,6 +226,26 @@
       <bottom style="dotted">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -269,17 +278,44 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -287,59 +323,41 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="標準 13" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDEBF7"/>
+      <color rgb="FF9BC2E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -602,7 +620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
@@ -658,308 +676,308 @@
       <c r="AJ1" s="6"/>
     </row>
     <row r="2" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
     </row>
     <row r="3" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-    </row>
-    <row r="4" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-    </row>
-    <row r="5" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+    </row>
+    <row r="4" spans="1:36" ht="13.5" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+    </row>
+    <row r="5" spans="1:36" ht="13.5" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
     </row>
     <row r="6" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A6" s="11"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
       <c r="AI6" s="21"/>
       <c r="AJ6" s="22"/>
     </row>
     <row r="7" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="18"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="26"/>
     </row>
     <row r="8" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
       <c r="AI8" s="21"/>
       <c r="AJ8" s="22"/>
     </row>
     <row r="9" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="18"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="26"/>
     </row>
     <row r="20" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="2"/>
@@ -1026,18 +1044,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="AI2:AJ3"/>
     <mergeCell ref="A4:AH4"/>
     <mergeCell ref="A5:AH5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="AI9:AJ9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079F5586-B25F-4B41-A75C-EA6A394D4DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="振休確認表(日数管理_紐付あり_年月日)" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -341,8 +335,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="標準 13" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,21 +614,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="6.75" style="2" customWidth="1"/>
-    <col min="4" max="9" width="3.75" style="2"/>
-    <col min="10" max="19" width="3.75" style="3"/>
-    <col min="20" max="20" width="3.75" style="1"/>
-    <col min="21" max="16384" width="3.75" style="2"/>
+    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="6.77734375" style="2" customWidth="1"/>
+    <col min="4" max="9" width="3.77734375" style="2"/>
+    <col min="10" max="19" width="3.77734375" style="3"/>
+    <col min="20" max="20" width="3.77734375" style="1"/>
+    <col min="21" max="16384" width="3.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
@@ -1058,11 +1050,10 @@
     <mergeCell ref="AI6:AJ6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　
-page&amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　page&amp;P</oddHeader>
   </headerFooter>
 </worksheet>
 </file>